--- a/doc/FullAutoavaluacio - santi.xlsx
+++ b/doc/FullAutoavaluacio - santi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Primer projecte de Software</t>
   </si>
@@ -88,14 +88,17 @@
     <t>Heu d'omplir els camps just a la dreta d'quells que estan en color vermell.</t>
   </si>
   <si>
-    <t>Test i Qualitat, Curs 2019-2020</t>
+    <t>Test i Qualitat, Curs 2020-2021</t>
+  </si>
+  <si>
+    <t>https://github.com/SantiagoUAB-org/TQS-lab-battleship</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +136,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,10 +162,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -182,8 +194,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -200,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -464,60 +478,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.36328125" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="8" t="s">
         <v>1</v>
@@ -550,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2">
         <v>0.2</v>
@@ -583,7 +597,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3">
         <f>C17*100%</f>
@@ -626,53 +640,53 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>C19*C17</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
         <f t="shared" ref="D20:L20" si="1">D19*D17</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
@@ -680,44 +694,44 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C22">
         <f>SUM(C20:L20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>0.95000000000000018</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="8" t="str">
         <f>C16</f>
@@ -760,7 +774,7 @@
         <v>Loop testing</v>
       </c>
     </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="2">
         <f>C17</f>
@@ -803,7 +817,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
         <f>C28*100%</f>
         <v>0.2</v>
@@ -845,53 +859,53 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>C30*C28</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31" si="13">D30*D28</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E31">
         <f t="shared" ref="E31" si="14">E30*E28</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F31">
         <f t="shared" ref="F31" si="15">F30*F28</f>
@@ -899,70 +913,73 @@
       </c>
       <c r="G31">
         <f t="shared" ref="G31" si="16">G30*G28</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H31">
         <f t="shared" ref="H31" si="17">H30*H28</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I31">
         <f t="shared" ref="I31" si="18">I30*I28</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J31">
         <f t="shared" ref="J31" si="19">J30*J28</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31" si="20">K30*K28</f>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L31">
         <f t="shared" ref="L31" si="21">L30*L28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C33">
         <f>SUM(C31:L31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+        <v>0.95000000000000018</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C35" t="e">
+      <c r="C35">
         <f>C33/C22</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C39" t="e">
+      <c r="C39">
         <f>C37*C35</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -973,6 +990,9 @@
     <protectedRange sqref="C30:L30" name="Range3"/>
     <protectedRange sqref="C41" name="Range5"/>
   </protectedRanges>
+  <hyperlinks>
+    <hyperlink ref="C41" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>